--- a/input/test/MatrixEngineTemplate_11.xlsx
+++ b/input/test/MatrixEngineTemplate_11.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="120" windowWidth="17020" windowHeight="14660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3480" yWindow="120" windowWidth="16920" windowHeight="7160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="6" r:id="rId1"/>
@@ -31,9 +31,6 @@
     <t>Equation</t>
   </si>
   <si>
-    <t>System Dynamics Fitness</t>
-  </si>
-  <si>
     <t>a + b</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>INITIAL(a + b, 10.1)</t>
+  </si>
+  <si>
+    <t>User Equation Fitness</t>
   </si>
 </sst>
 </file>
@@ -693,15 +693,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>43</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -741,7 +741,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="5">
         <v>0.1</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5">
         <v>0.1</v>
@@ -765,7 +765,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5">
         <v>0.4</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5">
         <v>0.33333000000000002</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5">
         <v>0.33333000000000002</v>
@@ -820,15 +820,15 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -836,10 +836,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -847,10 +847,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -858,13 +858,13 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>101</v>
@@ -872,7 +872,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4">
         <v>0.5</v>
@@ -880,10 +880,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -917,21 +917,21 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>10.4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -952,10 +952,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -993,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1007,7 +1007,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>0.5</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>0.5</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1094,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1105,7 +1105,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
